--- a/notebook/tasks.xlsx
+++ b/notebook/tasks.xlsx
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362.70281436213</v>
+        <v>45366.35718739858</v>
       </c>
       <c r="B2" t="n">
         <v>23</v>

--- a/notebook/tasks.xlsx
+++ b/notebook/tasks.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stat" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tasks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="stats" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +441,1624 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>worker</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ExperimentData</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Функции управления и атрибуты</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Обёртка groupby в Dataset</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ExperimentData __init__ с заполненными дополнительными полями</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Функции создания</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>манипуляции с данными</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>возвращать новый датасет</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>from_dict index</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>обновление ролей __getitem__</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>append</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>to_json</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>index to add_column</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>структура датасета</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>временные роли</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ID-Name</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Читаемый Hash</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Building indexing</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>получение через временную роль</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Executor-&gt;Pipline-&gt;Experiment</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Типы Executor</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Executor-&gt;Experiment</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CycledExperiment</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GroupedExperiment</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ComplexExecutor</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SplitterAA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Поменять test на control</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WithGrouping</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WithStratification</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>переписать все на темп роли</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>🤖</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Describer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Unique describer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Наследники Experiment</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Comporator</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hypothesis testing</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GroupComporator</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SplitAnalyzer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>🤖</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Временные трансформации</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Transformer</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sort</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>planed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Shuffle</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>to_json</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>planed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Придумать</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Атрибутное отображение Executor</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Описание Experiment</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Описание Dataset через JSON</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Реализовать</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Вгрузка</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>planed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>planed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JSON схема</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>V 0</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Представление данных</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Выбор path|data</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>для эксперимента</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>🦊</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Выгрузка</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Из Dataset</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hypotesis</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Experiments</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Experiments</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SingleAA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Experiments</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>in_progress</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>🤖</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
@@ -450,10 +2069,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new tasks</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>closed tasks</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>🦊</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>🤖</t>
         </is>
@@ -461,16 +2090,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45366.35718739858</v>
+        <v>45370.40441556966</v>
       </c>
       <c r="B2" t="n">
         <v>23</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45370.40442349648</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
